--- a/Experiments_2020.xlsx
+++ b/Experiments_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDFFE98-A35F-42B9-A31E-334B42FAA77F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A1031B-66A7-462A-BD01-920B9647B2C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D620FCA9-55F5-4908-AC14-07958E3402F1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D620FCA9-55F5-4908-AC14-07958E3402F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>Experiment #</t>
   </si>
@@ -66,12 +66,6 @@
     <t>Omega</t>
   </si>
   <si>
-    <t xml:space="preserve">Tidal (RPM) </t>
-  </si>
-  <si>
-    <t>Current (RPM)</t>
-  </si>
-  <si>
     <t>Total Energy</t>
   </si>
   <si>
@@ -85,6 +79,27 @@
   </si>
   <si>
     <t>Epsilon</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tidal (RPS) </t>
+  </si>
+  <si>
+    <t>Current (RPS)</t>
+  </si>
+  <si>
+    <t>Rho</t>
+  </si>
+  <si>
+    <t>Xi</t>
+  </si>
+  <si>
+    <t>Incorrect bottom density</t>
   </si>
 </sst>
 </file>
@@ -448,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CCCCB7-9725-4D7D-86DA-3224A0DB5623}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +479,7 @@
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
@@ -478,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -499,7 +514,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
@@ -553,7 +568,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G15" si="0">F3^2+0.5*E3^2</f>
+        <f t="shared" ref="G3:G4" si="0">F3^2+0.5*E3^2</f>
         <v>0.15758400000000003</v>
       </c>
       <c r="H3">
@@ -563,7 +578,7 @@
         <v>1017.3</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J15" si="1">SQRT(9.81/1000*(I3-H3)/D3)</f>
+        <f t="shared" ref="J3:J4" si="1">SQRT(9.81/1000*(I3-H3)/D3)</f>
         <v>0.66578274734831044</v>
       </c>
       <c r="K3">
@@ -604,41 +619,42 @@
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="E5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F5">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
-        <v>3.9984000000000006E-2</v>
-      </c>
-      <c r="H5">
-        <v>1000.4</v>
-      </c>
-      <c r="I5">
-        <v>1015.8</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" si="1"/>
-        <v>0.7522102264122047</v>
-      </c>
-      <c r="K5">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -646,30 +662,30 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>0.26700000000000002</v>
       </c>
       <c r="E6">
-        <v>0.56000000000000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F6">
-        <v>1.4E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15699600000000002</v>
+        <f t="shared" ref="G6:G22" si="2">F6^2+0.5*E6^2</f>
+        <v>3.9984000000000006E-2</v>
       </c>
       <c r="H6">
-        <v>1002.1</v>
+        <v>1000.4</v>
       </c>
       <c r="I6">
-        <v>1016.1</v>
+        <v>1015.8</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="1"/>
-        <v>0.71720431013199448</v>
+        <f t="shared" ref="J6:J22" si="3">SQRT(9.81/1000*(I6-H6)/D6)</f>
+        <v>0.7522102264122047</v>
       </c>
       <c r="K6">
         <v>14</v>
@@ -677,33 +693,33 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>0.27300000000000002</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="E7">
-        <v>0.28000000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F7">
         <v>1.4E-2</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>3.9396000000000007E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.15699600000000002</v>
       </c>
       <c r="H7">
-        <v>998.7</v>
+        <v>1002.1</v>
       </c>
       <c r="I7">
-        <v>1018.1</v>
+        <v>1016.1</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="1"/>
-        <v>0.83493764984032093</v>
+        <f t="shared" si="3"/>
+        <v>0.71720431013199448</v>
       </c>
       <c r="K7">
         <v>14</v>
@@ -714,30 +730,30 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>0.27300000000000002</v>
       </c>
       <c r="E8">
-        <v>0.14000000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F8">
-        <v>5.6000000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2936000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.9396000000000007E-2</v>
       </c>
       <c r="H8">
-        <v>1001.2</v>
+        <v>998.7</v>
       </c>
       <c r="I8">
-        <v>1018.3</v>
+        <v>1018.1</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="1"/>
-        <v>0.78388298072641194</v>
+        <f t="shared" si="3"/>
+        <v>0.83493764984032093</v>
       </c>
       <c r="K8">
         <v>14</v>
@@ -748,7 +764,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>0.27300000000000002</v>
@@ -757,61 +773,61 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F9">
-        <v>1.4E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>9.9960000000000014E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.2936000000000001E-2</v>
       </c>
       <c r="H9">
-        <v>1004.2</v>
+        <v>1001.2</v>
       </c>
       <c r="I9">
-        <v>1018.9</v>
+        <v>1018.3</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="1"/>
-        <v>0.72679486048730879</v>
+        <f t="shared" si="3"/>
+        <v>0.78388298072641194</v>
       </c>
       <c r="K9">
         <v>14</v>
-      </c>
-      <c r="L9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>0.24</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="E10">
-        <v>0.27</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F10">
-        <v>0.06</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0050000000000002E-2</v>
+        <f t="shared" si="2"/>
+        <v>9.9960000000000014E-3</v>
       </c>
       <c r="H10">
-        <v>1003.9</v>
+        <v>1004.2</v>
       </c>
       <c r="I10">
-        <v>1019.6</v>
+        <v>1018.9</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="1"/>
-        <v>0.80108520146111917</v>
+        <f t="shared" si="3"/>
+        <v>0.72679486048730879</v>
       </c>
       <c r="K10">
         <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -819,30 +835,30 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>0.24</v>
       </c>
       <c r="E11">
-        <v>0.22600000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="F11">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>3.9938000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.0050000000000002E-2</v>
       </c>
       <c r="H11">
         <v>1003.9</v>
       </c>
       <c r="I11">
-        <v>1019.8</v>
+        <v>1019.6</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="1"/>
-        <v>0.80617150780711611</v>
+        <f t="shared" si="3"/>
+        <v>0.80108520146111917</v>
       </c>
       <c r="K11">
         <v>14</v>
@@ -853,36 +869,33 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>0.24</v>
       </c>
       <c r="E12">
-        <v>0.187</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="F12">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>3.9984499999999999E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.9938000000000001E-2</v>
       </c>
       <c r="H12">
-        <v>1005.2</v>
+        <v>1003.9</v>
       </c>
       <c r="I12">
         <v>1019.8</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.77251213582700196</v>
+        <f t="shared" si="3"/>
+        <v>0.80617150780711611</v>
       </c>
       <c r="K12">
         <v>14</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -890,20 +903,20 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>0.24</v>
       </c>
       <c r="E13">
-        <v>0.123</v>
+        <v>0.187</v>
       </c>
       <c r="F13">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>3.99645E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.9984499999999999E-2</v>
       </c>
       <c r="H13">
         <v>1005.2</v>
@@ -912,10 +925,13 @@
         <v>1019.8</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.77251213582700196</v>
       </c>
       <c r="K13">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -924,30 +940,30 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>0.24</v>
       </c>
       <c r="E14">
-        <v>8.7999999999999995E-2</v>
+        <v>0.123</v>
       </c>
       <c r="F14">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>3.9972000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.99645E-2</v>
       </c>
       <c r="H14">
-        <v>1005.6</v>
+        <v>1005.2</v>
       </c>
       <c r="I14">
         <v>1019.8</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.7618562856602269</v>
+        <f t="shared" si="3"/>
+        <v>0.77251213582700196</v>
       </c>
       <c r="K14">
         <v>14</v>
@@ -955,39 +971,281 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>0.24</v>
+      </c>
+      <c r="E15">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.19</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9972000000000001E-2</v>
+      </c>
+      <c r="H15">
+        <v>1005.6</v>
+      </c>
+      <c r="I15">
+        <v>1019.8</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="3"/>
+        <v>0.7618562856602269</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16">
+        <v>0.245</v>
+      </c>
+      <c r="F16">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0012499999999999E-2</v>
+      </c>
+      <c r="H16">
+        <v>1001.6</v>
+      </c>
+      <c r="I16">
+        <v>1009.5</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="3"/>
+        <v>0.88033516344628526</v>
+      </c>
+      <c r="K16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="E17">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.08</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9940500000000004E-2</v>
+      </c>
+      <c r="H17">
+        <v>1000.8</v>
+      </c>
+      <c r="I17">
+        <v>1015.8</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.75375507835550803</v>
+      </c>
+      <c r="K17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
         <v>17</v>
       </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>0.1</v>
-      </c>
-      <c r="E15">
-        <v>0.245</v>
-      </c>
-      <c r="F15">
-        <v>0.1</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0012499999999999E-2</v>
-      </c>
-      <c r="H15">
+      <c r="D18">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.17</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0000500000000008E-2</v>
+      </c>
+      <c r="H18">
         <v>1001.6</v>
       </c>
-      <c r="I15">
-        <v>1009.5</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="1"/>
-        <v>0.88033516344628526</v>
-      </c>
-      <c r="K15">
+      <c r="I18">
+        <v>1016.1</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="3"/>
+        <v>0.74108602348748576</v>
+      </c>
+      <c r="K18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.17</v>
+      </c>
+      <c r="F19">
+        <v>0.16</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0050000000000002E-2</v>
+      </c>
+      <c r="H19">
+        <v>1002.1</v>
+      </c>
+      <c r="I19">
+        <v>1016.3</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="3"/>
+        <v>0.73337954692339036</v>
+      </c>
+      <c r="K19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="F20">
+        <v>0.05</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0038000000000011E-2</v>
+      </c>
+      <c r="H20">
+        <v>1005</v>
+      </c>
+      <c r="I20">
+        <v>1018</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.70170778989107885</v>
+      </c>
+      <c r="K20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>0.185</v>
+      </c>
+      <c r="E21">
+        <v>0.15</v>
+      </c>
+      <c r="F21">
+        <v>0.187</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6218999999999996E-2</v>
+      </c>
+      <c r="H21">
+        <v>1001.6</v>
+      </c>
+      <c r="I21">
+        <v>1019.3</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96880254870555271</v>
+      </c>
+      <c r="K21">
+        <v>14</v>
+      </c>
+      <c r="L21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>0.185</v>
+      </c>
+      <c r="E22">
+        <v>0.13</v>
+      </c>
+      <c r="F22">
+        <v>0.215</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="2"/>
+        <v>5.4674999999999994E-2</v>
+      </c>
+      <c r="H22">
+        <v>1002.2</v>
+      </c>
+      <c r="I22">
+        <v>1013.6</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="3"/>
+        <v>0.77750119492390934</v>
+      </c>
+      <c r="K22">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>